--- a/biology/Médecine/Carle_Gessard/Carle_Gessard.xlsx
+++ b/biology/Médecine/Carle_Gessard/Carle_Gessard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Carle Gessard est un pharmacien, chimiste et bactériologiste français, né le 3 octobre 1850 à Paris et mort le 7 novembre 1925 dans cette même ville[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Carle Gessard est un pharmacien, chimiste et bactériologiste français, né le 3 octobre 1850 à Paris et mort le 7 novembre 1925 dans cette même ville,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études secondaires au Lycée Bonaparte, Carle Gessard fait avant la Guerre franco-allemande de 1870 un stage de 3 ans chez plusieurs pharmaciens à Paris. Il suit les cours de l'École de pharmacie, entre au Val-de-Grâce et en sort premier de sa promotion en 1875. Revenu au Val-de-Grâce en 1881 comme pharmacien aide-major, chargé de la surveillance des élèves stagiaires, il est docteur en médecine à Paris en 1882[3],[4].
-Il découvre le bacille pyocyanique, ce qui lui vaut l'amitié de Louis Pasteur et la jalousie de ses confrères. Il est nommé en 1887 professeur agrégé au Val-de-Grâce, est envoyé en Algérie puis à Lille. Il prend sa retraite avant l'âge pour pouvoir se consacrer à ses recherches bactériologiques, qu'il mène en collaboration avec Émile Roux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études secondaires au Lycée Bonaparte, Carle Gessard fait avant la Guerre franco-allemande de 1870 un stage de 3 ans chez plusieurs pharmaciens à Paris. Il suit les cours de l'École de pharmacie, entre au Val-de-Grâce et en sort premier de sa promotion en 1875. Revenu au Val-de-Grâce en 1881 comme pharmacien aide-major, chargé de la surveillance des élèves stagiaires, il est docteur en médecine à Paris en 1882,.
+Il découvre le bacille pyocyanique, ce qui lui vaut l'amitié de Louis Pasteur et la jalousie de ses confrères. Il est nommé en 1887 professeur agrégé au Val-de-Grâce, est envoyé en Algérie puis à Lille. Il prend sa retraite avant l'âge pour pouvoir se consacrer à ses recherches bactériologiques, qu'il mène en collaboration avec Émile Roux.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur, à titre militaire.</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la pyocyanine et de son microbe : colorations qui en dépendent dans les liquides organiques, pus et sérosités, sueur, liquides de culture,  applications cliniques, Paris, Davy, 1882.
 Nouvelles recherches sur le microbe pyocyanique, Sceaux, Charaire, 1889.
